--- a/src/Tests/Templates/Companies.xlsx
+++ b/src/Tests/Templates/Companies.xlsx
@@ -234,6 +234,9 @@
   </x:si>
   <x:si>
     <x:t>17.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.03.2025</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -799,7 +802,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V2" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="W2" s="2" t="s">
         <x:v>55</x:v>
@@ -844,7 +847,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V3" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="W3" s="2" t="s">
         <x:v>55</x:v>
@@ -887,7 +890,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V4" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="W4" s="2" t="s">
         <x:v>55</x:v>
@@ -936,7 +939,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V5" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="W5" s="2" t="s">
         <x:v>55</x:v>
@@ -981,7 +984,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V6" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="W6" s="2" t="s">
         <x:v>55</x:v>
@@ -1026,7 +1029,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V7" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="W7" s="3" t="s">
         <x:v>55</x:v>
